--- a/Data/colors.xlsx
+++ b/Data/colors.xlsx
@@ -38,10 +38,10 @@
     <x:t>orange</x:t>
   </x:si>
   <x:si>
-    <x:t>green</x:t>
+    <x:t>red</x:t>
   </x:si>
   <x:si>
-    <x:t>red</x:t>
+    <x:t>green</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -447,29 +447,29 @@
       <x:selection activeCell="A1" sqref="A1 A1:A1 A11:XFD11"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="238.793281" defaultRowHeight="15" zeroHeight="false"/>
+  <x:sheetFormatPr defaultColWidth="255" defaultRowHeight="15" zeroHeight="false"/>
   <x:sheetData>
     <x:row r="1" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A1" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D1" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1" s="3" t="s">
         <x:v>0</x:v>
@@ -490,22 +490,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N1" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O1" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P1" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q1" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R1" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="S1" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T1" s="3" t="s">
         <x:v>0</x:v>
@@ -516,19 +516,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="D2" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F2" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2" s="3" t="s">
         <x:v>0</x:v>
@@ -543,13 +543,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K2" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L2" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M2" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N2" s="3" t="s">
         <x:v>0</x:v>
@@ -558,16 +558,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P2" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q2" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R2" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S2" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T2" s="3" t="s">
         <x:v>0</x:v>
@@ -575,19 +575,19 @@
     </x:row>
     <x:row r="3" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A3" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D3" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E3" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F3" s="3" t="s">
         <x:v>0</x:v>
@@ -599,28 +599,28 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I3" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J3" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K3" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L3" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M3" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N3" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O3" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P3" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q3" s="3" t="s">
         <x:v>0</x:v>
@@ -640,22 +640,22 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D4" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E4" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F4" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G4" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H4" s="3" t="s">
         <x:v>0</x:v>
@@ -667,25 +667,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K4" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L4" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M4" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N4" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O4" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P4" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q4" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R4" s="3" t="s">
         <x:v>0</x:v>
@@ -694,7 +694,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T4" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
@@ -714,25 +714,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K5" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L5" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M5" s="3" t="s">
         <x:v>0</x:v>
@@ -741,7 +741,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O5" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P5" s="3" t="s">
         <x:v>1</x:v>
@@ -750,10 +750,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R5" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S5" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T5" s="3" t="s">
         <x:v>0</x:v>
@@ -761,31 +761,31 @@
     </x:row>
     <x:row r="6" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A6" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F6" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G6" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H6" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I6" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J6" s="3" t="s">
         <x:v>0</x:v>
@@ -797,7 +797,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M6" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N6" s="3" t="s">
         <x:v>0</x:v>
@@ -812,13 +812,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="R6" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S6" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T6" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
@@ -829,10 +829,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
         <x:v>0</x:v>
@@ -841,10 +841,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
         <x:v>0</x:v>
@@ -862,13 +862,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N7" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O7" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P7" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q7" s="3" t="s">
         <x:v>0</x:v>
@@ -891,7 +891,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
         <x:v>0</x:v>
@@ -900,10 +900,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F8" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G8" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="3" t="s">
         <x:v>2</x:v>
@@ -915,13 +915,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K8" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L8" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M8" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N8" s="3" t="s">
         <x:v>0</x:v>
@@ -936,10 +936,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R8" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S8" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T8" s="3" t="s">
         <x:v>1</x:v>
@@ -956,19 +956,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F9" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G9" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I9" s="3" t="s">
         <x:v>0</x:v>
@@ -977,25 +977,25 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="K9" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L9" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="M9" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N9" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O9" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="P9" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q9" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R9" s="3" t="s">
         <x:v>0</x:v>
@@ -1015,7 +1015,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D10" s="3" t="s">
         <x:v>2</x:v>
@@ -1027,10 +1027,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G10" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H10" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I10" s="3" t="s">
         <x:v>0</x:v>
@@ -1042,7 +1042,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L10" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M10" s="3" t="s">
         <x:v>2</x:v>
@@ -1051,22 +1051,22 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="O10" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="P10" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q10" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R10" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S10" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T10" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
@@ -1080,31 +1080,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D11" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F11" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G11" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H11" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I11" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J11" s="3" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K11" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L11" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M11" s="3" t="s">
         <x:v>2</x:v>
@@ -1113,36 +1113,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="O11" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="P11" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q11" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R11" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S11" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T11" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A12" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D12" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E12" s="3" t="s">
         <x:v>0</x:v>
@@ -1151,46 +1151,46 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G12" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H12" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I12" s="3" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="J12" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K12" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="L12" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M12" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N12" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O12" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="P12" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q12" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R12" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="S12" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T12" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
@@ -1198,16 +1198,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B13" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D13" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E13" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F13" s="3" t="s">
         <x:v>0</x:v>
@@ -1219,22 +1219,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="I13" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J13" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K13" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L13" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M13" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N13" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O13" s="3" t="s">
         <x:v>2</x:v>
@@ -1243,10 +1243,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="Q13" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R13" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="S13" s="3" t="s">
         <x:v>1</x:v>
@@ -1257,16 +1257,16 @@
     </x:row>
     <x:row r="14" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A14" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D14" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E14" s="3" t="s">
         <x:v>0</x:v>
@@ -1275,13 +1275,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G14" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H14" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I14" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J14" s="3" t="s">
         <x:v>2</x:v>
@@ -1290,36 +1290,36 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="L14" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M14" s="3" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="N14" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O14" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P14" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q14" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R14" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S14" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T14" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A15" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B15" s="3" t="s">
         <x:v>0</x:v>
@@ -1328,25 +1328,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D15" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E15" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F15" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G15" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H15" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I15" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J15" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K15" s="3" t="s">
         <x:v>0</x:v>
@@ -1355,72 +1355,72 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M15" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N15" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O15" s="3" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="P15" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q15" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R15" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="S15" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T15" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A16" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B16" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D16" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E16" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F16" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G16" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I16" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J16" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K16" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="L16" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M16" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N16" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O16" s="3" t="s">
         <x:v>0</x:v>
@@ -1429,21 +1429,21 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="Q16" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R16" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="S16" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T16" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A17" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B17" s="3" t="s">
         <x:v>1</x:v>
@@ -1452,49 +1452,49 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D17" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E17" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F17" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G17" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H17" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I17" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J17" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K17" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L17" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M17" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N17" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O17" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P17" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q17" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R17" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S17" s="3" t="s">
         <x:v>0</x:v>
@@ -1511,40 +1511,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D18" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E18" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F18" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G18" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I18" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J18" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K18" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L18" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="M18" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N18" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O18" s="3" t="s">
         <x:v>1</x:v>
@@ -1553,10 +1553,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q18" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R18" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="S18" s="3" t="s">
         <x:v>1</x:v>
@@ -1573,7 +1573,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D19" s="3" t="s">
         <x:v>1</x:v>
@@ -1588,10 +1588,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I19" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J19" s="3" t="s">
         <x:v>1</x:v>
@@ -1606,36 +1606,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N19" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O19" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P19" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q19" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R19" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="S19" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T19" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A20" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D20" s="3" t="s">
         <x:v>1</x:v>
@@ -1644,49 +1644,49 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F20" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G20" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H20" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I20" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J20" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K20" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L20" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M20" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N20" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O20" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P20" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="Q20" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R20" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="S20" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T20" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1713,29 +1713,29 @@
       <x:selection activeCell="A11" sqref="A11 A11:A11 A11:XFD11"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="238.793281" defaultRowHeight="15" zeroHeight="false"/>
+  <x:sheetFormatPr defaultColWidth="255" defaultRowHeight="15" zeroHeight="false"/>
   <x:sheetData>
     <x:row r="1" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A1" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D1" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1" s="3" t="s">
         <x:v>3</x:v>
@@ -1747,31 +1747,31 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="K1" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="L1" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M1" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="N1" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O1" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="P1" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q1" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R1" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="S1" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T1" s="3" t="s">
         <x:v>4</x:v>
@@ -1782,19 +1782,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D2" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E2" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F2" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G2" s="3" t="s">
         <x:v>3</x:v>
@@ -1803,37 +1803,37 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I2" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J2" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K2" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L2" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M2" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N2" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O2" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="P2" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q2" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R2" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="S2" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="T2" s="3" t="s">
         <x:v>4</x:v>
@@ -1841,19 +1841,19 @@
     </x:row>
     <x:row r="3" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A3" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D3" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E3" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F3" s="3" t="s">
         <x:v>3</x:v>
@@ -1865,28 +1865,28 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I3" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J3" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K3" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L3" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M3" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N3" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O3" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="P3" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q3" s="3" t="s">
         <x:v>4</x:v>
@@ -1898,7 +1898,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="T3" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
@@ -1906,22 +1906,22 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D4" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E4" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F4" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="G4" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H4" s="3" t="s">
         <x:v>3</x:v>
@@ -1933,25 +1933,25 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="K4" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="L4" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="M4" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="N4" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O4" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P4" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="Q4" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="R4" s="3" t="s">
         <x:v>4</x:v>
@@ -1960,7 +1960,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T4" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
@@ -1980,34 +1980,34 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K5" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L5" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M5" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N5" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="O5" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P5" s="3" t="s">
         <x:v>1</x:v>
@@ -2016,42 +2016,42 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="R5" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S5" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T5" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A6" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F6" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G6" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H6" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I6" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J6" s="3" t="s">
         <x:v>3</x:v>
@@ -2060,13 +2060,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="L6" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M6" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N6" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O6" s="3" t="s">
         <x:v>4</x:v>
@@ -2078,13 +2078,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="R6" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="S6" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="T6" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
@@ -2095,10 +2095,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
         <x:v>3</x:v>
@@ -2107,10 +2107,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
         <x:v>3</x:v>
@@ -2128,16 +2128,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="N7" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O7" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="P7" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q7" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="R7" s="3" t="s">
         <x:v>4</x:v>
@@ -2146,7 +2146,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="T7" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
@@ -2154,22 +2154,22 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F8" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G8" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H8" s="3" t="s">
         <x:v>5</x:v>
@@ -2178,34 +2178,34 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="J8" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K8" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="L8" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="M8" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N8" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O8" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P8" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="Q8" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="R8" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="S8" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T8" s="3" t="s">
         <x:v>1</x:v>
@@ -2213,75 +2213,75 @@
     </x:row>
     <x:row r="9" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A9" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F9" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G9" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H9" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I9" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J9" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K9" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="L9" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="M9" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N9" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O9" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="P9" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q9" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="R9" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="S9" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T9" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A10" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D10" s="3" t="s">
         <x:v>5</x:v>
@@ -2293,22 +2293,22 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G10" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H10" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I10" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J10" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K10" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="L10" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M10" s="3" t="s">
         <x:v>5</x:v>
@@ -2317,22 +2317,22 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="O10" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="P10" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q10" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R10" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="S10" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="T10" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
@@ -2346,31 +2346,31 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D11" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F11" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G11" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H11" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I11" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J11" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K11" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="L11" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M11" s="3" t="s">
         <x:v>5</x:v>
@@ -2379,84 +2379,84 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="O11" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="P11" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q11" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="R11" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S11" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="T11" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A12" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B12" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D12" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E12" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="F12" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G12" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H12" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I12" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="J12" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K12" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="L12" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="M12" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N12" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O12" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="P12" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q12" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="R12" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="S12" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="T12" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
@@ -2464,43 +2464,43 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B13" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D13" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E13" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F13" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G13" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H13" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="I13" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J13" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K13" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L13" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="M13" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N13" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O13" s="3" t="s">
         <x:v>5</x:v>
@@ -2509,10 +2509,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="Q13" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="R13" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="S13" s="3" t="s">
         <x:v>1</x:v>
@@ -2523,16 +2523,16 @@
     </x:row>
     <x:row r="14" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A14" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D14" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E14" s="3" t="s">
         <x:v>6</x:v>
@@ -2541,13 +2541,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G14" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H14" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I14" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J14" s="3" t="s">
         <x:v>5</x:v>
@@ -2556,36 +2556,36 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L14" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M14" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="N14" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O14" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P14" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q14" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="R14" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S14" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="T14" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A15" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B15" s="3" t="s">
         <x:v>6</x:v>
@@ -2594,25 +2594,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D15" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E15" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F15" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G15" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H15" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I15" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J15" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K15" s="3" t="s">
         <x:v>6</x:v>
@@ -2621,72 +2621,72 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="M15" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N15" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O15" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="P15" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q15" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R15" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="S15" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="T15" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A16" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B16" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D16" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="E16" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F16" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G16" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H16" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I16" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J16" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K16" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="L16" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="M16" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N16" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O16" s="3" t="s">
         <x:v>6</x:v>
@@ -2695,21 +2695,21 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="Q16" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R16" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="S16" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="T16" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A17" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B17" s="3" t="s">
         <x:v>1</x:v>
@@ -2718,49 +2718,49 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D17" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E17" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F17" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G17" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H17" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I17" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J17" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K17" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="L17" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="M17" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N17" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="O17" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P17" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q17" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="R17" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="S17" s="3" t="s">
         <x:v>6</x:v>
@@ -2777,40 +2777,40 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D18" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="E18" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F18" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G18" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H18" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I18" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J18" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K18" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L18" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="M18" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N18" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O18" s="3" t="s">
         <x:v>1</x:v>
@@ -2819,10 +2819,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="Q18" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="R18" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="S18" s="3" t="s">
         <x:v>1</x:v>
@@ -2839,7 +2839,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D19" s="3" t="s">
         <x:v>1</x:v>
@@ -2854,10 +2854,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H19" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I19" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J19" s="3" t="s">
         <x:v>1</x:v>
@@ -2872,36 +2872,36 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="N19" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O19" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="P19" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q19" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="R19" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="S19" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T19" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A20" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B20" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D20" s="3" t="s">
         <x:v>1</x:v>
@@ -2910,49 +2910,49 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F20" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G20" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H20" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I20" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J20" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K20" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="L20" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M20" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N20" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O20" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P20" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="Q20" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="R20" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="S20" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="T20" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
